--- a/Timepoints .xlsx
+++ b/Timepoints .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079FE2E-AF8A-45A9-9B68-FC339AA381D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65581216-D153-4BAE-95AF-08CC68A8A473}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1764" yWindow="1428" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -526,18 +526,18 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -817,17 +817,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="52" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="54" customWidth="1"/>
     <col min="6" max="6" width="36.44140625" style="13" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="16" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" style="19" customWidth="1"/>
@@ -853,7 +853,7 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="52"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
@@ -982,10 +982,10 @@
       <c r="J5" s="47">
         <v>44937</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="52">
         <v>45229</v>
       </c>
-      <c r="L5" s="53">
+      <c r="L5" s="52">
         <v>45229</v>
       </c>
       <c r="M5" s="43" t="s">
@@ -1347,7 +1347,7 @@
       <c r="F21" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="53" t="s">
         <v>62</v>
       </c>
       <c r="H21" s="27"/>
@@ -1469,7 +1469,9 @@
       <c r="F26" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="26"/>
+      <c r="G26" s="53" t="s">
+        <v>62</v>
+      </c>
       <c r="H26" s="27"/>
       <c r="I26" s="47">
         <v>45088</v>

--- a/Timepoints .xlsx
+++ b/Timepoints .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65581216-D153-4BAE-95AF-08CC68A8A473}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2576A18-831B-41BA-90E4-FFBD7346644E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1764" yWindow="1428" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1800" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>4.1.4 Load warehouse vào datamart</t>
   </si>
   <si>
-    <t>4.1 Dataflow (Workflow)</t>
-  </si>
-  <si>
     <t>4.2.1 Lấy data từ source</t>
   </si>
   <si>
@@ -204,12 +201,6 @@
     <t>hoanf thành</t>
   </si>
   <si>
-    <t>4.2 Dataflow (Dataflow)</t>
-  </si>
-  <si>
-    <t>file dataflow sheet extract</t>
-  </si>
-  <si>
     <t>hoàn thành</t>
   </si>
   <si>
@@ -217,6 +208,15 @@
   </si>
   <si>
     <t>file dataflow sheet crawler</t>
+  </si>
+  <si>
+    <t>4.1 Flow (Workflow)</t>
+  </si>
+  <si>
+    <t>4.2 Flow (Dataflow)</t>
+  </si>
+  <si>
+    <t>file dataflow sheet extract, load to staging</t>
   </si>
 </sst>
 </file>
@@ -818,10 +818,10 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
@@ -973,7 +973,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="35" t="s">
@@ -1245,7 +1245,7 @@
     <row r="17" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14"/>
       <c r="F17" s="22" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>31</v>
@@ -1348,7 +1348,7 @@
         <v>51</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="35" t="s">
@@ -1367,7 +1367,7 @@
     <row r="22" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="14"/>
       <c r="F22" s="22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>47</v>
@@ -1383,7 +1383,7 @@
     <row r="23" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="14"/>
       <c r="F23" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>6</v>
@@ -1402,7 +1402,7 @@
         <v>45241</v>
       </c>
       <c r="M23" s="43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N23" s="44" t="s">
         <v>36</v>
@@ -1411,7 +1411,7 @@
     <row r="24" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="14"/>
       <c r="F24" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>4</v>
@@ -1430,16 +1430,16 @@
         <v>45088</v>
       </c>
       <c r="M24" s="43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N24" s="44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="14"/>
       <c r="F25" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>4</v>
@@ -1458,19 +1458,19 @@
         <v>45088</v>
       </c>
       <c r="M25" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="44" t="s">
         <v>57</v>
-      </c>
-      <c r="N25" s="44" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="26" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="14"/>
       <c r="F26" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" s="53" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H26" s="27"/>
       <c r="I26" s="47">

--- a/Timepoints .xlsx
+++ b/Timepoints .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2408822C-FD08-460C-9C08-05DDAEAB7CF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A855697C-3DF8-4BBF-91C8-634906F73899}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="1152" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,7 +224,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -390,43 +390,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1441,8 +1441,8 @@
       <c r="F29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>4</v>
+      <c r="G29" s="39" t="s">
+        <v>44</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="35">

--- a/Timepoints .xlsx
+++ b/Timepoints .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A855697C-3DF8-4BBF-91C8-634906F73899}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001850E4-7985-4C29-9145-9A164DCB4615}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="1152" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>3.2.7 Dim</t>
+  </si>
+  <si>
+    <t>File mockup sheet Staging , các dữ liệu ví dụ và chi tiết các cột</t>
+  </si>
+  <si>
+    <t>File mockup sheet warehouse , các dữ liệu ví dụ và chi tiết các cột</t>
+  </si>
+  <si>
+    <t>File mockup sheet datamart , các dữ liệu ví dụ và chi tiết các cột</t>
   </si>
 </sst>
 </file>
@@ -381,9 +390,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -454,6 +460,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -738,66 +747,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="39.5546875" style="27" customWidth="1"/>
-    <col min="7" max="8" width="30.77734375" style="27" customWidth="1"/>
-    <col min="9" max="9" width="30.77734375" style="28" customWidth="1"/>
-    <col min="10" max="10" width="30.77734375" style="29" customWidth="1"/>
-    <col min="11" max="11" width="30.77734375" style="30" customWidth="1"/>
-    <col min="12" max="12" width="30.77734375" style="31" customWidth="1"/>
-    <col min="13" max="14" width="30.77734375" style="32" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="24"/>
+    <col min="1" max="1" width="15.109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="39.5546875" style="26" customWidth="1"/>
+    <col min="7" max="8" width="30.77734375" style="26" customWidth="1"/>
+    <col min="9" max="9" width="30.77734375" style="27" customWidth="1"/>
+    <col min="10" max="10" width="30.77734375" style="28" customWidth="1"/>
+    <col min="11" max="11" width="30.77734375" style="29" customWidth="1"/>
+    <col min="12" max="12" width="30.77734375" style="30" customWidth="1"/>
+    <col min="13" max="14" width="30.77734375" style="31" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="26" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:14" s="25" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="40" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -805,13 +814,13 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="32">
         <v>20130217</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="32">
         <v>20130260</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="32">
         <v>1930034</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -825,8 +834,8 @@
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -840,22 +849,22 @@
         <v>4</v>
       </c>
       <c r="H3" s="9"/>
-      <c r="I3" s="34">
+      <c r="I3" s="33">
         <v>45222</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="33">
         <v>45222</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="34">
         <v>45229</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="34">
         <v>45229</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="45" t="s">
         <v>28</v>
       </c>
     </row>
@@ -867,22 +876,22 @@
         <v>6</v>
       </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="34">
+      <c r="I4" s="33">
         <v>45223</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="33">
         <v>45222</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="34">
         <v>45229</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="34">
         <v>45229</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
@@ -894,22 +903,22 @@
         <v>44</v>
       </c>
       <c r="H5" s="9"/>
-      <c r="I5" s="34">
+      <c r="I5" s="33">
         <v>45224</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="33">
         <v>45222</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="34">
         <v>45229</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="34">
         <v>45229</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="45" t="s">
         <v>28</v>
       </c>
     </row>
@@ -921,10 +930,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="34">
+      <c r="I6" s="33">
         <v>45225</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="33">
         <v>45222</v>
       </c>
       <c r="K6" s="18"/>
@@ -944,8 +953,8 @@
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F8" s="9" t="s">
@@ -955,10 +964,10 @@
         <v>6</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="36">
+      <c r="I8" s="35">
         <v>45231</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="34">
         <v>45231</v>
       </c>
       <c r="K8" s="18"/>
@@ -967,7 +976,7 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="25"/>
+      <c r="C9" s="24"/>
       <c r="F9" s="9" t="s">
         <v>24</v>
       </c>
@@ -975,10 +984,10 @@
         <v>7</v>
       </c>
       <c r="H9" s="9"/>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <v>45231</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="34">
         <v>45231</v>
       </c>
       <c r="K9" s="18"/>
@@ -987,7 +996,7 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="25"/>
+      <c r="C10" s="24"/>
       <c r="F10" s="9" t="s">
         <v>25</v>
       </c>
@@ -995,10 +1004,10 @@
         <v>4</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="36">
+      <c r="I10" s="35">
         <v>45231</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="34">
         <v>45231</v>
       </c>
       <c r="K10" s="18"/>
@@ -1007,7 +1016,7 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="25"/>
+      <c r="C11" s="24"/>
       <c r="F11" s="3" t="s">
         <v>54</v>
       </c>
@@ -1018,7 +1027,7 @@
       <c r="I11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="36" t="s">
         <v>9</v>
       </c>
       <c r="K11" s="12" t="s">
@@ -1030,12 +1039,12 @@
       <c r="M11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="25"/>
+      <c r="C12" s="24"/>
       <c r="F12" s="3" t="s">
         <v>55</v>
       </c>
@@ -1051,7 +1060,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="25"/>
+      <c r="C13" s="24"/>
       <c r="F13" s="9" t="s">
         <v>56</v>
       </c>
@@ -1059,10 +1068,10 @@
         <v>6</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="34">
+      <c r="I13" s="33">
         <v>45220</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="34">
         <v>45231</v>
       </c>
       <c r="K13" s="16"/>
@@ -1073,7 +1082,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="25"/>
+      <c r="C14" s="24"/>
       <c r="F14" s="9" t="s">
         <v>57</v>
       </c>
@@ -1081,16 +1090,16 @@
         <v>4</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="34">
+      <c r="I14" s="33">
         <v>45220</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="34">
         <v>45231</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="33">
         <v>45225</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="34">
         <v>45229</v>
       </c>
       <c r="M14" s="10" t="s">
@@ -1101,7 +1110,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="25"/>
+      <c r="C15" s="24"/>
       <c r="F15" s="9" t="s">
         <v>58</v>
       </c>
@@ -1109,23 +1118,27 @@
         <v>4</v>
       </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="34">
+      <c r="I15" s="33">
         <v>45220</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="34">
         <v>45231</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="33">
         <v>45225</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10" t="s">
-        <v>49</v>
+      <c r="L15" s="34">
+        <v>45247</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" s="45" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="25"/>
+      <c r="C16" s="24"/>
       <c r="F16" s="9" t="s">
         <v>59</v>
       </c>
@@ -1133,23 +1146,27 @@
         <v>4</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="34">
+      <c r="I16" s="33">
         <v>45220</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="34">
         <v>45231</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="33">
         <v>45225</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10" t="s">
-        <v>49</v>
+      <c r="L16" s="34">
+        <v>45247</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="45" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="25"/>
+      <c r="C17" s="24"/>
       <c r="F17" s="9" t="s">
         <v>61</v>
       </c>
@@ -1157,23 +1174,25 @@
         <v>4</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <v>45220</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="34">
         <v>45231</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="33">
         <v>45225</v>
       </c>
-      <c r="L17" s="19"/>
+      <c r="L17" s="34">
+        <v>45247</v>
+      </c>
       <c r="M17" s="10"/>
-      <c r="N17" s="10" t="s">
-        <v>49</v>
+      <c r="N17" s="45" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="25"/>
+      <c r="C18" s="24"/>
       <c r="F18" s="9" t="s">
         <v>62</v>
       </c>
@@ -1181,27 +1200,27 @@
         <v>4</v>
       </c>
       <c r="H18" s="9"/>
-      <c r="I18" s="34">
+      <c r="I18" s="33">
         <v>45220</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="37">
         <v>44937</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="33">
         <v>45225</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="34">
         <v>45243</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>49</v>
+        <v>66</v>
+      </c>
+      <c r="N18" s="45" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="25"/>
+      <c r="C19" s="24"/>
       <c r="F19" s="9" t="s">
         <v>63</v>
       </c>
@@ -1209,16 +1228,16 @@
         <v>4</v>
       </c>
       <c r="H19" s="9"/>
-      <c r="I19" s="34">
+      <c r="I19" s="33">
         <v>45220</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="37">
         <v>44937</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="33">
         <v>45225</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="34">
         <v>45243</v>
       </c>
       <c r="M19" s="10" t="s">
@@ -1229,7 +1248,7 @@
       </c>
     </row>
     <row r="20" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="25"/>
+      <c r="C20" s="24"/>
       <c r="F20" s="3" t="s">
         <v>46</v>
       </c>
@@ -1245,7 +1264,7 @@
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="25"/>
+      <c r="C21" s="24"/>
       <c r="F21" s="9" t="s">
         <v>35</v>
       </c>
@@ -1253,27 +1272,27 @@
         <v>6</v>
       </c>
       <c r="H21" s="9"/>
-      <c r="I21" s="34">
+      <c r="I21" s="33">
         <v>45231</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="34">
         <v>45250</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="33">
         <v>45220</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="33">
         <v>45220</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="25"/>
+      <c r="C22" s="24"/>
       <c r="F22" s="9" t="s">
         <v>36</v>
       </c>
@@ -1281,27 +1300,27 @@
         <v>4</v>
       </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="34">
+      <c r="I22" s="33">
         <v>45231</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="34">
         <v>45250</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="33">
         <v>45220</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="33">
         <v>45225</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="N22" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="25"/>
+      <c r="C23" s="24"/>
       <c r="F23" s="9" t="s">
         <v>37</v>
       </c>
@@ -1309,38 +1328,38 @@
         <v>4</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="34">
+      <c r="I23" s="33">
         <v>45231</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="34">
         <v>45250</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="33">
         <v>45220</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="33">
         <v>45220</v>
       </c>
       <c r="M23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="25"/>
+      <c r="C24" s="24"/>
       <c r="F24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="38" t="s">
         <v>44</v>
       </c>
       <c r="H24" s="9"/>
-      <c r="I24" s="34">
+      <c r="I24" s="33">
         <v>45231</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="34">
         <v>45250</v>
       </c>
       <c r="K24" s="17"/>
@@ -1349,7 +1368,7 @@
       <c r="N24" s="10"/>
     </row>
     <row r="25" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="25"/>
+      <c r="C25" s="24"/>
       <c r="F25" s="3" t="s">
         <v>47</v>
       </c>
@@ -1365,7 +1384,7 @@
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="25"/>
+      <c r="C26" s="24"/>
       <c r="F26" s="9" t="s">
         <v>39</v>
       </c>
@@ -1373,10 +1392,10 @@
         <v>6</v>
       </c>
       <c r="H26" s="9"/>
-      <c r="I26" s="35">
+      <c r="I26" s="34">
         <v>45236</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="34">
         <v>45250</v>
       </c>
       <c r="K26" s="16"/>
@@ -1389,7 +1408,7 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="25"/>
+      <c r="C27" s="24"/>
       <c r="F27" s="9" t="s">
         <v>40</v>
       </c>
@@ -1397,10 +1416,10 @@
         <v>4</v>
       </c>
       <c r="H27" s="9"/>
-      <c r="I27" s="35">
+      <c r="I27" s="34">
         <v>45236</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="34">
         <v>45250</v>
       </c>
       <c r="K27" s="17"/>
@@ -1413,7 +1432,7 @@
       </c>
     </row>
     <row r="28" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="25"/>
+      <c r="C28" s="24"/>
       <c r="F28" s="9" t="s">
         <v>41</v>
       </c>
@@ -1421,10 +1440,10 @@
         <v>4</v>
       </c>
       <c r="H28" s="9"/>
-      <c r="I28" s="35">
+      <c r="I28" s="34">
         <v>45236</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="34">
         <v>45250</v>
       </c>
       <c r="K28" s="17"/>
@@ -1437,18 +1456,18 @@
       </c>
     </row>
     <row r="29" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="25"/>
+      <c r="C29" s="24"/>
       <c r="F29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="38" t="s">
         <v>44</v>
       </c>
       <c r="H29" s="9"/>
-      <c r="I29" s="35">
+      <c r="I29" s="34">
         <v>45236</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="34">
         <v>45250</v>
       </c>
       <c r="K29" s="18"/>
@@ -1464,10 +1483,10 @@
         <v>6</v>
       </c>
       <c r="H30" s="9"/>
-      <c r="I30" s="35">
+      <c r="I30" s="34">
         <v>45236</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="34">
         <v>45250</v>
       </c>
       <c r="K30" s="18"/>
@@ -1483,10 +1502,10 @@
         <v>6</v>
       </c>
       <c r="H31" s="9"/>
-      <c r="I31" s="35">
+      <c r="I31" s="34">
         <v>45236</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="34">
         <v>45250</v>
       </c>
       <c r="K31" s="18"/>
@@ -1502,10 +1521,10 @@
         <v>4</v>
       </c>
       <c r="H32" s="9"/>
-      <c r="I32" s="35">
+      <c r="I32" s="34">
         <v>45236</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="34">
         <v>45250</v>
       </c>
       <c r="K32" s="18"/>
@@ -1521,10 +1540,10 @@
         <v>4</v>
       </c>
       <c r="H33" s="9"/>
-      <c r="I33" s="35">
+      <c r="I33" s="34">
         <v>45236</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="34">
         <v>45250</v>
       </c>
       <c r="K33" s="18"/>

--- a/Timepoints .xlsx
+++ b/Timepoints .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001850E4-7985-4C29-9145-9A164DCB4615}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDCADCF-83A3-400F-9205-A0F10076DD5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="1152" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -226,6 +226,27 @@
   </si>
   <si>
     <t>File mockup sheet datamart , các dữ liệu ví dụ và chi tiết các cột</t>
+  </si>
+  <si>
+    <t>5 Database</t>
+  </si>
+  <si>
+    <t>5.1.1 Control (config table)</t>
+  </si>
+  <si>
+    <t>5.1.2  Control (log table)</t>
+  </si>
+  <si>
+    <t>5.2 Staging</t>
+  </si>
+  <si>
+    <t>5.4 Datamart</t>
+  </si>
+  <si>
+    <t>5.3.2 Aggregate</t>
+  </si>
+  <si>
+    <t>5.3.1 Warehouse</t>
   </si>
 </sst>
 </file>
@@ -745,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1532,7 +1553,7 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="6:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F33" s="9" t="s">
         <v>53</v>
       </c>
@@ -1550,6 +1571,154 @@
       <c r="L33" s="11"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="24"/>
+      <c r="F34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F35" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="34">
+        <v>45248</v>
+      </c>
+      <c r="J35" s="34">
+        <v>45255</v>
+      </c>
+      <c r="K35" s="18"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="34">
+        <v>45248</v>
+      </c>
+      <c r="J36" s="34">
+        <v>45255</v>
+      </c>
+      <c r="K36" s="34">
+        <v>45248</v>
+      </c>
+      <c r="L36" s="34">
+        <v>45248</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c r="N36" s="45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F37" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="34">
+        <v>45248</v>
+      </c>
+      <c r="J37" s="34">
+        <v>45255</v>
+      </c>
+      <c r="K37" s="34">
+        <v>45248</v>
+      </c>
+      <c r="L37" s="34">
+        <v>45248</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c r="N37" s="45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F38" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="34">
+        <v>45248</v>
+      </c>
+      <c r="J38" s="34">
+        <v>45255</v>
+      </c>
+      <c r="K38" s="34">
+        <v>45248</v>
+      </c>
+      <c r="L38" s="34">
+        <v>45248</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c r="N38" s="45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F39" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="34">
+        <v>45248</v>
+      </c>
+      <c r="J39" s="34">
+        <v>45255</v>
+      </c>
+      <c r="K39" s="18"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F40" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="34">
+        <v>45248</v>
+      </c>
+      <c r="J40" s="34">
+        <v>45255</v>
+      </c>
+      <c r="K40" s="18"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Timepoints .xlsx
+++ b/Timepoints .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDCADCF-83A3-400F-9205-A0F10076DD5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAA3359-DD00-4B0D-83AE-1C9582776961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="1152" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Giao diên figma + code html css</t>
   </si>
   <si>
-    <t xml:space="preserve">Data mẫu </t>
-  </si>
-  <si>
     <t>File load to staging (trello và drive)</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>4.2.3 Load data từ staging vào warehouse</t>
   </si>
   <si>
-    <t>4.2.4 Load warehouse vào datamart</t>
-  </si>
-  <si>
     <t>file excel dataflow sheet transform</t>
   </si>
   <si>
@@ -247,6 +241,18 @@
   </si>
   <si>
     <t>5.3.1 Warehouse</t>
+  </si>
+  <si>
+    <t>File mockup sheet aggregate , các dữ liệu ví dụ và chi tiết các cột</t>
+  </si>
+  <si>
+    <t>4.2.5 Load warehouse vào datamart</t>
+  </si>
+  <si>
+    <t>4.2.4 Load data từ các bảng fact_dim vào aggregate</t>
+  </si>
+  <si>
+    <t>file excel dataflow sheet Aggregate</t>
   </si>
 </sst>
 </file>
@@ -766,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -921,7 +927,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="33">
@@ -994,15 +1000,17 @@
       <c r="K8" s="18"/>
       <c r="L8" s="11"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="N8" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="24"/>
       <c r="F9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>7</v>
+      <c r="G9" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="35">
@@ -1014,7 +1022,9 @@
       <c r="K9" s="18"/>
       <c r="L9" s="11"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="N9" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="24"/>
@@ -1034,12 +1044,14 @@
       <c r="K10" s="18"/>
       <c r="L10" s="11"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="N10" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C11" s="24"/>
       <c r="F11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>4</v>
@@ -1067,10 +1079,10 @@
     <row r="12" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C12" s="24"/>
       <c r="F12" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="12"/>
@@ -1083,7 +1095,7 @@
     <row r="13" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C13" s="24"/>
       <c r="F13" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>6</v>
@@ -1099,13 +1111,13 @@
       <c r="L13" s="16"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="24"/>
       <c r="F14" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>4</v>
@@ -1124,16 +1136,16 @@
         <v>45229</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="24"/>
       <c r="F15" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>4</v>
@@ -1152,7 +1164,7 @@
         <v>45247</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N15" s="45" t="s">
         <v>28</v>
@@ -1161,7 +1173,7 @@
     <row r="16" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C16" s="24"/>
       <c r="F16" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>4</v>
@@ -1180,7 +1192,7 @@
         <v>45247</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N16" s="45" t="s">
         <v>28</v>
@@ -1189,7 +1201,7 @@
     <row r="17" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" s="24"/>
       <c r="F17" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>4</v>
@@ -1205,9 +1217,11 @@
         <v>45225</v>
       </c>
       <c r="L17" s="34">
-        <v>45247</v>
-      </c>
-      <c r="M17" s="10"/>
+        <v>45249</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="N17" s="45" t="s">
         <v>28</v>
       </c>
@@ -1215,7 +1229,7 @@
     <row r="18" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C18" s="24"/>
       <c r="F18" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>4</v>
@@ -1234,7 +1248,7 @@
         <v>45243</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N18" s="45" t="s">
         <v>28</v>
@@ -1243,7 +1257,7 @@
     <row r="19" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" s="24"/>
       <c r="F19" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>4</v>
@@ -1259,19 +1273,17 @@
         <v>45225</v>
       </c>
       <c r="L19" s="34">
-        <v>45243</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>49</v>
+        <v>45249</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="45" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C20" s="24"/>
       <c r="F20" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>26</v>
@@ -1287,7 +1299,7 @@
     <row r="21" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" s="24"/>
       <c r="F21" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>6</v>
@@ -1315,7 +1327,7 @@
     <row r="22" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" s="24"/>
       <c r="F22" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>4</v>
@@ -1334,7 +1346,7 @@
         <v>45225</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N22" s="45" t="s">
         <v>28</v>
@@ -1343,7 +1355,7 @@
     <row r="23" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="24"/>
       <c r="F23" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>4</v>
@@ -1362,7 +1374,7 @@
         <v>45220</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N23" s="45" t="s">
         <v>28</v>
@@ -1371,10 +1383,10 @@
     <row r="24" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C24" s="24"/>
       <c r="F24" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="33">
@@ -1391,10 +1403,10 @@
     <row r="25" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" s="24"/>
       <c r="F25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="12"/>
@@ -1407,7 +1419,7 @@
     <row r="26" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C26" s="24"/>
       <c r="F26" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>6</v>
@@ -1422,16 +1434,16 @@
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" s="24"/>
       <c r="F27" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>4</v>
@@ -1446,16 +1458,16 @@
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
       <c r="M27" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="24"/>
       <c r="F28" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>4</v>
@@ -1467,22 +1479,26 @@
       <c r="J28" s="34">
         <v>45250</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="K28" s="34">
+        <v>45249</v>
+      </c>
+      <c r="L28" s="34">
+        <v>45249</v>
+      </c>
       <c r="M28" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="N28" s="45" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="24"/>
       <c r="F29" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>44</v>
+        <v>74</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="34">
@@ -1491,17 +1507,26 @@
       <c r="J29" s="34">
         <v>45250</v>
       </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="K29" s="34">
+        <v>45249</v>
+      </c>
+      <c r="L29" s="34">
+        <v>45249</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N29" s="45" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="24"/>
       <c r="F30" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>42</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="34">
@@ -1517,7 +1542,7 @@
     </row>
     <row r="31" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F31" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>6</v>
@@ -1536,10 +1561,10 @@
     </row>
     <row r="32" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F32" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="34">
@@ -1555,7 +1580,7 @@
     </row>
     <row r="33" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F33" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>4</v>
@@ -1567,52 +1592,64 @@
       <c r="J33" s="34">
         <v>45250</v>
       </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="11"/>
+      <c r="K33" s="34">
+        <v>45249</v>
+      </c>
+      <c r="L33" s="34">
+        <v>45249</v>
+      </c>
       <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
+      <c r="N33" s="45" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="24"/>
-      <c r="F34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
+      <c r="F34" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="34">
+        <v>45236</v>
+      </c>
+      <c r="J34" s="34">
+        <v>45250</v>
+      </c>
+      <c r="K34" s="34">
+        <v>45249</v>
+      </c>
+      <c r="L34" s="34">
+        <v>45249</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c r="N34" s="45" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="35" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F35" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="34">
-        <v>45248</v>
-      </c>
-      <c r="J35" s="34">
-        <v>45255</v>
-      </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="C35" s="24"/>
+      <c r="F35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
     </row>
     <row r="36" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F36" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="34">
@@ -1621,20 +1658,14 @@
       <c r="J36" s="34">
         <v>45255</v>
       </c>
-      <c r="K36" s="34">
-        <v>45248</v>
-      </c>
-      <c r="L36" s="34">
-        <v>45248</v>
-      </c>
+      <c r="K36" s="18"/>
+      <c r="L36" s="11"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="45" t="s">
-        <v>28</v>
-      </c>
+      <c r="N36" s="10"/>
     </row>
     <row r="37" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F37" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>4</v>
@@ -1659,7 +1690,7 @@
     </row>
     <row r="38" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F38" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>4</v>
@@ -1684,7 +1715,7 @@
     </row>
     <row r="39" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F39" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>4</v>
@@ -1696,17 +1727,23 @@
       <c r="J39" s="34">
         <v>45255</v>
       </c>
-      <c r="K39" s="18"/>
-      <c r="L39" s="11"/>
+      <c r="K39" s="34">
+        <v>45248</v>
+      </c>
+      <c r="L39" s="34">
+        <v>45248</v>
+      </c>
       <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="N39" s="45" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="40" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F40" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G40" s="38" t="s">
-        <v>44</v>
+        <v>70</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="34">
@@ -1719,6 +1756,25 @@
       <c r="L40" s="11"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F41" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="34">
+        <v>45248</v>
+      </c>
+      <c r="J41" s="34">
+        <v>45255</v>
+      </c>
+      <c r="K41" s="18"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Timepoints .xlsx
+++ b/Timepoints .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAA3359-DD00-4B0D-83AE-1C9582776961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B43DCEA-54A9-47ED-AF14-40F330AB3059}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="1152" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>file excel dataflow sheet Aggregate</t>
+  </si>
+  <si>
+    <t>file excel crawler</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -774,28 +777,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="39.5546875" style="26" customWidth="1"/>
-    <col min="7" max="8" width="30.77734375" style="26" customWidth="1"/>
-    <col min="9" max="9" width="30.77734375" style="27" customWidth="1"/>
-    <col min="10" max="10" width="30.77734375" style="28" customWidth="1"/>
-    <col min="11" max="11" width="30.77734375" style="29" customWidth="1"/>
-    <col min="12" max="12" width="30.77734375" style="30" customWidth="1"/>
-    <col min="13" max="14" width="30.77734375" style="31" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="15.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" style="26" customWidth="1"/>
+    <col min="7" max="8" width="30.7109375" style="26" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="27" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" style="28" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="29" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="30" customWidth="1"/>
+    <col min="13" max="14" width="30.7109375" style="31" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="25" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="25" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -837,7 +840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -864,7 +867,7 @@
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
     </row>
-    <row r="3" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -895,7 +898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F4" s="9" t="s">
         <v>19</v>
       </c>
@@ -922,7 +925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
@@ -949,7 +952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F6" s="9" t="s">
         <v>21</v>
       </c>
@@ -968,7 +971,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
@@ -983,7 +986,7 @@
       <c r="M7" s="44"/>
       <c r="N7" s="44"/>
     </row>
-    <row r="8" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F8" s="9" t="s">
         <v>23</v>
       </c>
@@ -1000,11 +1003,11 @@
       <c r="K8" s="18"/>
       <c r="L8" s="11"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N8" s="45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="24"/>
       <c r="F9" s="9" t="s">
         <v>24</v>
@@ -1026,7 +1029,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="24"/>
       <c r="F10" s="9" t="s">
         <v>25</v>
@@ -1048,7 +1051,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="24"/>
       <c r="F11" s="3" t="s">
         <v>52</v>
@@ -1076,7 +1079,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="24"/>
       <c r="F12" s="3" t="s">
         <v>53</v>
@@ -1092,7 +1095,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="24"/>
       <c r="F13" s="9" t="s">
         <v>54</v>
@@ -1114,7 +1117,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="24"/>
       <c r="F14" s="9" t="s">
         <v>55</v>
@@ -1142,7 +1145,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="24"/>
       <c r="F15" s="9" t="s">
         <v>56</v>
@@ -1170,7 +1173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="24"/>
       <c r="F16" s="9" t="s">
         <v>57</v>
@@ -1198,7 +1201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="24"/>
       <c r="F17" s="9" t="s">
         <v>59</v>
@@ -1226,7 +1229,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="24"/>
       <c r="F18" s="9" t="s">
         <v>60</v>
@@ -1254,7 +1257,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="24"/>
       <c r="F19" s="9" t="s">
         <v>61</v>
@@ -1280,7 +1283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="24"/>
       <c r="F20" s="3" t="s">
         <v>44</v>
@@ -1296,7 +1299,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="24"/>
       <c r="F21" s="9" t="s">
         <v>34</v>
@@ -1324,7 +1327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="24"/>
       <c r="F22" s="9" t="s">
         <v>35</v>
@@ -1352,7 +1355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="24"/>
       <c r="F23" s="9" t="s">
         <v>36</v>
@@ -1380,7 +1383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="24"/>
       <c r="F24" s="9" t="s">
         <v>37</v>
@@ -1400,7 +1403,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="24"/>
       <c r="F25" s="3" t="s">
         <v>45</v>
@@ -1416,7 +1419,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="24"/>
       <c r="F26" s="9" t="s">
         <v>38</v>
@@ -1440,7 +1443,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="24"/>
       <c r="F27" s="9" t="s">
         <v>39</v>
@@ -1464,7 +1467,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="24"/>
       <c r="F28" s="9" t="s">
         <v>40</v>
@@ -1492,7 +1495,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="24"/>
       <c r="F29" s="9" t="s">
         <v>74</v>
@@ -1520,7 +1523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="24"/>
       <c r="F30" s="9" t="s">
         <v>73</v>
@@ -1540,7 +1543,7 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F31" s="9" t="s">
         <v>48</v>
       </c>
@@ -1554,12 +1557,20 @@
       <c r="J31" s="34">
         <v>45250</v>
       </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-    </row>
-    <row r="32" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K31" s="16">
+        <v>45252</v>
+      </c>
+      <c r="L31" s="16">
+        <v>45252</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N31" s="45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F32" s="9" t="s">
         <v>49</v>
       </c>
@@ -1578,7 +1589,7 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F33" s="9" t="s">
         <v>50</v>
       </c>
@@ -1603,7 +1614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F34" s="9" t="s">
         <v>51</v>
       </c>
@@ -1628,7 +1639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="24"/>
       <c r="F35" s="3" t="s">
         <v>65</v>
@@ -1644,7 +1655,7 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F36" s="9" t="s">
         <v>66</v>
       </c>
@@ -1663,7 +1674,7 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F37" s="9" t="s">
         <v>67</v>
       </c>
@@ -1688,7 +1699,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F38" s="9" t="s">
         <v>68</v>
       </c>
@@ -1713,7 +1724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F39" s="9" t="s">
         <v>71</v>
       </c>
@@ -1738,7 +1749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F40" s="9" t="s">
         <v>70</v>
       </c>
@@ -1757,7 +1768,7 @@
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F41" s="9" t="s">
         <v>69</v>
       </c>

--- a/Timepoints .xlsx
+++ b/Timepoints .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B43DCEA-54A9-47ED-AF14-40F330AB3059}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F047D0-FFF6-462D-8BE3-BEA01BB1D45C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>file excel crawler</t>
+  </si>
+  <si>
+    <t>Data.rar</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -495,6 +498,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="D29" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1584,10 +1588,18 @@
       <c r="J32" s="34">
         <v>45250</v>
       </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="K32" s="16">
+        <v>45254</v>
+      </c>
+      <c r="L32" s="46">
+        <v>45256</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" s="45" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="33" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F33" s="9" t="s">

--- a/Timepoints .xlsx
+++ b/Timepoints .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F047D0-FFF6-462D-8BE3-BEA01BB1D45C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061D124E-49CC-4053-A370-6483E6F168B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Data.rar</t>
+  </si>
+  <si>
+    <t>File mockup sheet Config , các dữ liệu ví dụ và chi tiết các cột</t>
   </si>
 </sst>
 </file>
@@ -781,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D29" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1114,11 +1117,17 @@
       <c r="J13" s="34">
         <v>45231</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10" t="s">
-        <v>47</v>
+      <c r="K13" s="33">
+        <v>45256</v>
+      </c>
+      <c r="L13" s="33">
+        <v>45256</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="45" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1443,8 +1452,8 @@
       <c r="M26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="10" t="s">
-        <v>47</v>
+      <c r="N26" s="45" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">

--- a/Timepoints .xlsx
+++ b/Timepoints .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\DW_2023_T2_Nhom9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061D124E-49CC-4053-A370-6483E6F168B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411D4542-577B-41D6-8ADC-5B0D2DFFF73D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1236" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -378,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -477,9 +477,6 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -504,7 +501,7 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -784,28 +781,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" style="26" customWidth="1"/>
-    <col min="7" max="8" width="30.7109375" style="26" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="27" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="28" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="29" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="30" customWidth="1"/>
-    <col min="13" max="14" width="30.7109375" style="31" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="23"/>
+    <col min="1" max="1" width="15.109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="39.5546875" style="26" customWidth="1"/>
+    <col min="7" max="8" width="30.6640625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" style="29" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" style="30" customWidth="1"/>
+    <col min="13" max="14" width="30.6640625" style="31" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="25" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="25" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -819,35 +816,35 @@
         <v>7</v>
       </c>
       <c r="E1" s="21"/>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="42" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -871,10 +868,10 @@
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-    </row>
-    <row r="3" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+    </row>
+    <row r="3" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -901,11 +898,11 @@
       <c r="M3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F4" s="9" t="s">
         <v>19</v>
       </c>
@@ -928,11 +925,11 @@
       <c r="M4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
@@ -955,11 +952,11 @@
       <c r="M5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F6" s="9" t="s">
         <v>21</v>
       </c>
@@ -973,12 +970,18 @@
       <c r="J6" s="33">
         <v>45222</v>
       </c>
-      <c r="K6" s="18"/>
+      <c r="K6" s="34">
+        <v>45229</v>
+      </c>
       <c r="L6" s="11"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
@@ -990,10 +993,10 @@
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-    </row>
-    <row r="8" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+    </row>
+    <row r="8" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F8" s="9" t="s">
         <v>23</v>
       </c>
@@ -1010,11 +1013,11 @@
       <c r="K8" s="18"/>
       <c r="L8" s="11"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="24"/>
       <c r="F9" s="9" t="s">
         <v>24</v>
@@ -1036,7 +1039,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="24"/>
       <c r="F10" s="9" t="s">
         <v>25</v>
@@ -1058,7 +1061,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C11" s="24"/>
       <c r="F11" s="3" t="s">
         <v>52</v>
@@ -1082,11 +1085,11 @@
       <c r="M11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C12" s="24"/>
       <c r="F12" s="3" t="s">
         <v>53</v>
@@ -1102,7 +1105,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C13" s="24"/>
       <c r="F13" s="9" t="s">
         <v>54</v>
@@ -1126,11 +1129,11 @@
       <c r="M13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N13" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="24"/>
       <c r="F14" s="9" t="s">
         <v>55</v>
@@ -1149,16 +1152,16 @@
         <v>45225</v>
       </c>
       <c r="L14" s="34">
-        <v>45229</v>
+        <v>45261</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N14" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="24"/>
       <c r="F15" s="9" t="s">
         <v>56</v>
@@ -1182,11 +1185,11 @@
       <c r="M15" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N15" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C16" s="24"/>
       <c r="F16" s="9" t="s">
         <v>57</v>
@@ -1210,11 +1213,11 @@
       <c r="M16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" s="24"/>
       <c r="F17" s="9" t="s">
         <v>59</v>
@@ -1238,11 +1241,11 @@
       <c r="M17" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C18" s="24"/>
       <c r="F18" s="9" t="s">
         <v>60</v>
@@ -1266,11 +1269,11 @@
       <c r="M18" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N18" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" s="24"/>
       <c r="F19" s="9" t="s">
         <v>61</v>
@@ -1292,11 +1295,11 @@
         <v>45249</v>
       </c>
       <c r="M19" s="10"/>
-      <c r="N19" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C20" s="24"/>
       <c r="F20" s="3" t="s">
         <v>44</v>
@@ -1312,7 +1315,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" s="24"/>
       <c r="F21" s="9" t="s">
         <v>34</v>
@@ -1336,11 +1339,11 @@
       <c r="M21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" s="24"/>
       <c r="F22" s="9" t="s">
         <v>35</v>
@@ -1364,11 +1367,11 @@
       <c r="M22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="24"/>
       <c r="F23" s="9" t="s">
         <v>36</v>
@@ -1392,17 +1395,17 @@
       <c r="M23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C24" s="24"/>
       <c r="F24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="38" t="s">
-        <v>42</v>
+      <c r="G24" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="33">
@@ -1411,12 +1414,18 @@
       <c r="J24" s="34">
         <v>45250</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="11"/>
+      <c r="K24" s="33">
+        <v>45220</v>
+      </c>
+      <c r="L24" s="33">
+        <v>45220</v>
+      </c>
       <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-    </row>
-    <row r="25" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N24" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" s="24"/>
       <c r="F25" s="3" t="s">
         <v>45</v>
@@ -1432,7 +1441,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C26" s="24"/>
       <c r="F26" s="9" t="s">
         <v>38</v>
@@ -1452,17 +1461,17 @@
       <c r="M26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" s="24"/>
       <c r="F27" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="34">
@@ -1476,11 +1485,11 @@
       <c r="M27" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N27" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="24"/>
       <c r="F28" s="9" t="s">
         <v>40</v>
@@ -1504,11 +1513,11 @@
       <c r="M28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N28" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N28" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="24"/>
       <c r="F29" s="9" t="s">
         <v>74</v>
@@ -1532,17 +1541,17 @@
       <c r="M29" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="N29" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C30" s="24"/>
       <c r="F30" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="38" t="s">
-        <v>42</v>
+      <c r="G30" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="34">
@@ -1554,9 +1563,11 @@
       <c r="K30" s="18"/>
       <c r="L30" s="11"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N30" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F31" s="9" t="s">
         <v>48</v>
       </c>
@@ -1579,11 +1590,11 @@
       <c r="M31" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N31" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N31" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F32" s="9" t="s">
         <v>49</v>
       </c>
@@ -1600,17 +1611,17 @@
       <c r="K32" s="16">
         <v>45254</v>
       </c>
-      <c r="L32" s="46">
+      <c r="L32" s="45">
         <v>45256</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="N32" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N32" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F33" s="9" t="s">
         <v>50</v>
       </c>
@@ -1631,11 +1642,11 @@
         <v>45249</v>
       </c>
       <c r="M33" s="10"/>
-      <c r="N33" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F34" s="9" t="s">
         <v>51</v>
       </c>
@@ -1656,11 +1667,11 @@
         <v>45249</v>
       </c>
       <c r="M34" s="10"/>
-      <c r="N34" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N34" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="24"/>
       <c r="F35" s="3" t="s">
         <v>65</v>
@@ -1676,7 +1687,7 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F36" s="9" t="s">
         <v>66</v>
       </c>
@@ -1690,12 +1701,18 @@
       <c r="J36" s="34">
         <v>45255</v>
       </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="11"/>
+      <c r="K36" s="34">
+        <v>45248</v>
+      </c>
+      <c r="L36" s="34">
+        <v>45248</v>
+      </c>
       <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-    </row>
-    <row r="37" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N36" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F37" s="9" t="s">
         <v>67</v>
       </c>
@@ -1716,16 +1733,16 @@
         <v>45248</v>
       </c>
       <c r="M37" s="10"/>
-      <c r="N37" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N37" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F38" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="34">
@@ -1741,11 +1758,11 @@
         <v>45248</v>
       </c>
       <c r="M38" s="10"/>
-      <c r="N38" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N38" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F39" s="9" t="s">
         <v>71</v>
       </c>
@@ -1766,11 +1783,11 @@
         <v>45248</v>
       </c>
       <c r="M39" s="10"/>
-      <c r="N39" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N39" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F40" s="9" t="s">
         <v>70</v>
       </c>
@@ -1784,17 +1801,23 @@
       <c r="J40" s="34">
         <v>45255</v>
       </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="11"/>
+      <c r="K40" s="34">
+        <v>45248</v>
+      </c>
+      <c r="L40" s="34">
+        <v>45248</v>
+      </c>
       <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-    </row>
-    <row r="41" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N40" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F41" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G41" s="38" t="s">
-        <v>42</v>
+      <c r="G41" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="34">
@@ -1803,10 +1826,16 @@
       <c r="J41" s="34">
         <v>45255</v>
       </c>
-      <c r="K41" s="18"/>
-      <c r="L41" s="11"/>
+      <c r="K41" s="34">
+        <v>45248</v>
+      </c>
+      <c r="L41" s="34">
+        <v>45248</v>
+      </c>
       <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
+      <c r="N41" s="44" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
